--- a/Data_science_outputs/200pop/Monthly_consumption/Montlhy_consumption_3.xlsx
+++ b/Data_science_outputs/200pop/Monthly_consumption/Montlhy_consumption_3.xlsx
@@ -475,13 +475,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4116.661974916668</v>
+        <v>2993.3023958</v>
       </c>
       <c r="C2" t="n">
         <v>2351.599128433334</v>
       </c>
       <c r="D2" t="n">
-        <v>1318.6975042</v>
+        <v>202.2209602333333</v>
       </c>
       <c r="E2" t="n">
         <v>400.1840932166667</v>
@@ -498,13 +498,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3855.108785050001</v>
+        <v>2815.513484116667</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1237.68813355</v>
+        <v>193.8054265166667</v>
       </c>
       <c r="E3" t="n">
         <v>355.9091347666666</v>
@@ -521,13 +521,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4089.768447066667</v>
+        <v>3002.775658366667</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1313.38297855</v>
+        <v>200.7630757</v>
       </c>
       <c r="E4" t="n">
         <v>372.1555363166667</v>
@@ -544,13 +544,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3997.289996516667</v>
+        <v>2896.734895566667</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1281.0056244</v>
+        <v>202.4454222333333</v>
       </c>
       <c r="E5" t="n">
         <v>371.1109415166667</v>
@@ -567,13 +567,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>4102.217865816667</v>
+        <v>2986.844631983334</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1317.307121666667</v>
+        <v>205.8283510833333</v>
       </c>
       <c r="E6" t="n">
         <v>374.1476903333333</v>
@@ -590,13 +590,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3985.17241685</v>
+        <v>2939.527072450001</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1280.051900333333</v>
+        <v>187.4918758</v>
       </c>
       <c r="E7" t="n">
         <v>354.7076161833334</v>
@@ -613,13 +613,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>4112.759348666667</v>
+        <v>2981.484152850001</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.4077206</v>
+        <v>195.3420448</v>
       </c>
       <c r="E8" t="n">
         <v>386.0292638333333</v>
@@ -636,13 +636,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>4141.800747383334</v>
+        <v>3008.645255083334</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1328.936429583333</v>
+        <v>203.6077692666667</v>
       </c>
       <c r="E9" t="n">
         <v>366.42780335</v>
@@ -659,13 +659,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>3993.139551333334</v>
+        <v>2929.975138683334</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1278.579256116667</v>
+        <v>195.5894932833333</v>
       </c>
       <c r="E10" t="n">
         <v>376.5195011166666</v>
@@ -682,13 +682,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>4120.533182433334</v>
+        <v>3006.062622700001</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1310.06527965</v>
+        <v>194.65602</v>
       </c>
       <c r="E11" t="n">
         <v>368.8713039833333</v>
@@ -705,13 +705,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>3974.444133333334</v>
+        <v>2915.079398966667</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1270.87914865</v>
+        <v>205.13571825</v>
       </c>
       <c r="E12" t="n">
         <v>378.7645485666667</v>
@@ -728,13 +728,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>3954.759672400001</v>
+        <v>2931.312351233334</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1272.404310983333</v>
+        <v>189.0492176666667</v>
       </c>
       <c r="E13" t="n">
         <v>375.7094729166666</v>
